--- a/Pratice/src/main/resources/URLValidations.xlsx
+++ b/Pratice/src/main/resources/URLValidations.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="19200" windowHeight="8000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pageload" sheetId="1" r:id="rId1"/>
+    <sheet name="LinkClick" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>S.no.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>URLs</t>
   </si>
@@ -45,6 +43,9 @@
   </si>
   <si>
     <t>ndh=1&amp;pev2=AMACTION%3Aleftnav&amp;mid=39412051356552413452428987752042016582&amp;aamlh=3&amp;aamb=6G1ynYcLPuiQxYZrsz_pkqfLG9yMXBpb2zX5dvJdYQJzPXImdj0y&amp;pageName=Peacock%20%28Analytics%29%2F5.8.20&amp;pe=lnk_o&amp;t=00%2F00%2F0000%2000%3A00%3A00%200%20240&amp;c.&amp;linkDetails=left-nav%7C%7C2%7Csearch%7Cclick&amp;subSection0=search&amp;territory=us&amp;a.&amp;AppID=Peacock%20%28Analytics%29%205.8.20&amp;DeviceName=4800X&amp;OSVersion=Roku%2013.1.4-1510&amp;Resolution=1920x1080&amp;action=leftnav&amp;.a&amp;userEntitlement=premium&amp;appVersion=5.8.20&amp;opt.&amp;dmp=Y&amp;.opt&amp;cvsdkVersion=v7.2.3&amp;mvtOptimizely=ForYouKidsProfile%7CForYouKidsProfileRetest%3Avariation_1%3BLinearPVRControls%7CRokuLinearPVRControls%3Avariation_1%3BRailPlacement%7CComingSoonRailPromo%3Avariation_1%3BcoviewV1%7CcoviewV1%3Acontrol%3BformerlyInCatalogue%7CformerlyInCatalogueRecs%3Avariation_1%3BpzEventsFY%7CpzEventsFY%3Avariation1%3BpzFansAlsoLiked%7CpzFansAlsoLiked%3Avariation1&amp;daid=1c9ceab6-9890-5061-a8bf-ac2c2589f555&amp;personaId=001703f29f2ef931969d71e1c4264bb31e5db9f318223cf6669a73e26fa1ab4c&amp;serviceProfileid=f8bf01b32209fb734dae98a93b96a1c94bf8253c&amp;screenOrientation=landscape&amp;mpsessionId=367f7c8c-9441-4b75-958f-4b0cc7887afd&amp;pageType=home&amp;pName=peacock%3Asearch&amp;trackingID=5EkGTFMFkgSD82EvGRtkTnGRFp3Zm3uX%2BLR8FrJ8H%2BE%3D&amp;siteSection=search&amp;profileSetting=autoPlay%3Atrue%7Csubtitle%3Aen%7Clinked%3Afalse&amp;dayHourMinute=tuesday_13_19&amp;platform&amp;customerType=existing&amp;deviceType=settop&amp;rsid=nbcssott&amp;countryCode=us&amp;coppaFlag=false&amp;site=peacock%20%28analytics%29&amp;loginStatus=%7Clogged%20in%7C%7C%7C%7C&amp;deviceModel=roku3A4800x&amp;browsingMethod=roku&amp;partitionId=no-partition&amp;.c</t>
+  </si>
+  <si>
+    <t>ndh=1&amp;cid.&amp;DSID_20915.&amp;as=1&amp;id=8E0B6B97-FA13-4A84-AAF0-1CCD20E68D04&amp;.DSID_20915&amp;chash.&amp;as=1&amp;id=Se0KRSkXls4UG%2Bm0VcEoLCIVPyRfpqfdPe6L3GALSdQ%3D&amp;.chash&amp;.cid&amp;aamb=j8Odv6LonN4r3an7LhD3WZrU1bUpAkFkkiY1ncBR96t2PTI&amp;aamlh=12&amp;c.&amp;a.&amp;AppID=PeacockMobile-US%205.8.20%20%287442%29&amp;CarrierName=--&amp;DeviceName=iPhone14%2C5&amp;OSVersion=iOS%2017.5.1&amp;Resolution=1170x2532&amp;RunMode=Application&amp;TimeSinceLaunch=4056&amp;action=bottomNavClickEvent&amp;.a&amp;appVersion=5.8.20&amp;browsingMethod=ios%20mobile&amp;coppaFlag=false&amp;countryCode=us&amp;customerType=existing&amp;cvsdkVersion=57.1.2&amp;daid=8E0B6B97-FA13-4A84-AAF0-1CCD20E68D04&amp;dayHourMinute=tuesday_21_31&amp;deviceModel=apple%3AiPhone14%2C5&amp;deviceType=mobile%20app&amp;linkDetails=bottom-nav%7C%7C3%7Csearch%7Cclick&amp;loginStatus=%7Clogged%20in%7C%7C%7C%7C&amp;mpsessionId=12F622DD-1132-4EE8-8BF7-34C81C621324&amp;mvtOptimizely=ForYouKidsProfile%7CForYouKidsProfileRetest%3Avariation_1%3BRailPlacement%7CComingSoonRailPromo%3Acontrol%3BVoiceAi%7CVoiceAiV1%3Aweb_ios_variation_2%3BcoviewV1%7CcoviewV1%3Acontrol%3BformerlyInCatalogue%7CformerlyInCatalogueRecs%3Acontrol%3BpzEventsFY%7CpzEventsFY%3Avariation1%3BpzFansAlsoLiked%7CpzFansAlsoLiked%3Avariation1&amp;opt.&amp;dmp=Y&amp;.opt&amp;pageName=peacock%3Asearch&amp;pageType=home&amp;partitionId=xp-partition%3Ano-partition&amp;personaid=8dcf49760490eb076f678c0378b7c825304611e04c44be1e8148c7fbc9024162&amp;platform=ios&amp;profileSetting=autoplay%3Atrue%7Csubtitle%3Afalse%7Clinked%3Afalse&amp;rsid=nbcssott&amp;screenOrientation=portrait&amp;serviceProfileId=6314a3ada2a547cbb45f826c122451474d312cdf&amp;site=peacock&amp;siteSection=home&amp;subSection0=home&amp;territory=us&amp;trackingId=Se0KRSkXls4UG%2Bm0VcEoLCIVPyRfpqfdPe6L3GALSdQ%3D&amp;userEntitlement=premium&amp;.c&amp;ce=UTF-8&amp;cp=foreground&amp;mid=17997284413425786808162940629254221352&amp;pageName=PeacockMobile-US%205.8.20%20%287442%29&amp;pe=lnk_o&amp;pev2=AMACTION%3AbottomNavClickEvent&amp;t=00%2F00%2F0000%2000%3A00%3A00%200%20-330</t>
   </si>
 </sst>
 </file>
@@ -1230,51 +1231,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
